--- a/General.Mvc/wwwroot/Files/importfile/SACR19111 APPENDIX.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/SACR19111 APPENDIX.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>订单行号</t>
   </si>
@@ -135,9 +135,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2020.1.1</t>
-  </si>
-  <si>
     <t>Gill</t>
   </si>
   <si>
@@ -254,13 +251,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="30">
@@ -311,63 +308,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -383,21 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -408,9 +333,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,6 +355,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -459,8 +424,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,6 +537,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,13 +627,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,96 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,41 +716,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,20 +742,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,6 +787,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -824,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,127 +833,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -965,33 +962,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1066,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1560,15 +1560,17 @@
       <c r="P2" s="7">
         <v>2.97</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="7">
+        <v>2.97</v>
+      </c>
+      <c r="R2" s="23">
+        <v>43831</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:20">
@@ -1576,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7">
         <v>100730</v>
@@ -1599,7 +1601,9 @@
       <c r="I3" s="7">
         <v>96</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7">
+        <v>2.97</v>
+      </c>
       <c r="K3" s="7">
         <v>14</v>
       </c>
@@ -1621,14 +1625,14 @@
       <c r="Q3" s="7">
         <v>2.97</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="23">
+        <v>43831</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1671,7 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1683,40 +1687,40 @@
     </row>
     <row r="2" ht="26.25" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -1731,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7">
         <v>0.472</v>
@@ -1756,7 +1760,7 @@
         <v>43849</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -1771,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7">
         <v>0.472</v>
@@ -1796,7 +1800,7 @@
         <v>44031</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -1811,7 +1815,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7">
         <v>0.236</v>
@@ -1836,7 +1840,7 @@
         <v>43849</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -1851,7 +1855,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7">
         <v>0.236</v>
@@ -1876,13 +1880,13 @@
         <v>44031</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1914,7 +1918,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="14">
         <f>SUM(J3:J7)</f>
@@ -1925,10 +1929,10 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -1943,10 +1947,10 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="K15" s="1"/>
     </row>
